--- a/Test-Cases-Login-page-app.vwo.com.xlsx
+++ b/Test-Cases-Login-page-app.vwo.com.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usama Noshad\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usama Noshad\OneDrive\Desktop\Working Directory\Manual-Testing-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E6BC9E-11E3-436B-8F25-457C5D7C0734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFB769D-A471-4C92-8C3E-D1A5A1DA0E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAE40FE4-8C02-4B7A-BA74-32637708BDF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t xml:space="preserve">Prject Name </t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Test Data</t>
-  </si>
-  <si>
-    <t>Login Functionality</t>
   </si>
   <si>
     <t>VWO Website</t>
@@ -222,14 +219,6 @@
     <t xml:space="preserve">You email is not valid to forgot your password </t>
   </si>
   <si>
-    <t>Forgot Password
-Functionality</t>
-  </si>
-  <si>
-    <t>Remember me 
-Functionality</t>
-  </si>
-  <si>
     <t>Validate the remember me functionality</t>
   </si>
   <si>
@@ -281,10 +270,6 @@
 email account.
 2.User should be successfully Forgot Password.
 . </t>
-  </si>
-  <si>
-    <t>Register or Don't have an account
-fucntionality</t>
   </si>
   <si>
     <t>Validate the User should be sucessfully
@@ -429,6 +414,38 @@
 4.Should contain special &amp; numbers.
 5.Should contain lower &amp; upper case letters.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Empty emal input field.
+2.Empty  password in input field.
+3.Click on the Sign in button.
+</t>
+  </si>
+  <si>
+    <t>1.NO email address.
+2.No password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should not  be successfully Sign in.
+. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay on the same page/url </t>
+  </si>
+  <si>
+    <t>Validate the working of Login Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Forgot Password
+Functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Remember me 
+Functionality</t>
+  </si>
+  <si>
+    <t>Validating the Register or Don't have an account
+fucntionality</t>
   </si>
 </sst>
 </file>
@@ -844,16 +861,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED88A719-1B17-4D3E-8C43-415199BF7FCA}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
     <col min="3" max="4" width="34.6640625" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" customWidth="1"/>
     <col min="6" max="6" width="53.5546875" customWidth="1"/>
@@ -870,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.3">
@@ -905,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>10</v>
@@ -937,28 +954,28 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -966,86 +983,86 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="H12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -1053,144 +1070,144 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>50</v>
+      <c r="B14" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -1198,144 +1215,144 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="G18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>11</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>12</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>13</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="I21" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>14</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
@@ -1343,28 +1360,28 @@
         <v>15</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="G23" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
@@ -1372,28 +1389,28 @@
         <v>16</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>76</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
@@ -1401,28 +1418,28 @@
         <v>17</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
@@ -1430,28 +1447,28 @@
         <v>18</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
@@ -1459,28 +1476,57 @@
         <v>19</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>20</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>75</v>
+      <c r="D28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
